--- a/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
+++ b/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0639FD07-29BE-E644-A480-08CCBE4382B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5779F83D-27DA-094F-A786-60A6E695D738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14260" yWindow="760" windowWidth="15580" windowHeight="13360" tabRatio="841" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15420" yWindow="1640" windowWidth="14820" windowHeight="13360" tabRatio="841" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="9" r:id="rId1"/>
@@ -38183,8 +38183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38660,508 +38660,790 @@
       <c r="A59" s="5">
         <v>37679</v>
       </c>
+      <c r="B59">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>37680</v>
       </c>
+      <c r="B60">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>37681</v>
       </c>
+      <c r="B61">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>37682</v>
       </c>
+      <c r="B62">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>37683</v>
       </c>
+      <c r="B63">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>37684</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>37685</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>37686</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>37687</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>37688</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>37689</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>37690</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>37691</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>37692</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>37693</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>37694</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>37695</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>37696</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>37697</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>37698</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>37699</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>37700</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>37701</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>37702</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>37703</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>37704</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>37705</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>37706</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>37707</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>37708</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>37709</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>37710</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>37711</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>37712</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>37713</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>37714</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>37715</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>37716</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>37717</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>37718</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>37719</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>37720</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>37721</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>37722</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>37723</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>37724</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>37725</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>37726</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>37727</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>37728</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>37729</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>37730</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>37731</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>37732</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>37733</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>37734</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>37735</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>37736</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>37737</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>37738</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>37739</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>37740</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>37741</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>37742</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>37743</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>37744</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>37745</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>37746</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>37747</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>37748</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>37749</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>37750</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>37751</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>37752</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>37753</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>37754</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>37755</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>37756</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>37757</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>37758</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>37759</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>37760</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>37761</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>37762</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>37763</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>37764</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>37765</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>37766</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>37767</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>37768</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>37769</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>37770</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>37771</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>37772</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>37773</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>37774</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>37775</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>37776</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>37777</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>37778</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>37779</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>37780</v>
       </c>

--- a/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
+++ b/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5779F83D-27DA-094F-A786-60A6E695D738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838FCD54-A4AE-CA4F-82EA-B5EEDC95BEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15420" yWindow="1640" windowWidth="14820" windowHeight="13360" tabRatio="841" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20020" yWindow="1640" windowWidth="10220" windowHeight="17180" tabRatio="841" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="9" r:id="rId1"/>
@@ -38183,8 +38183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39412,492 +39412,737 @@
       <c r="A153" s="5">
         <v>37773</v>
       </c>
+      <c r="B153">
+        <v>7.44</v>
+      </c>
     </row>
     <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>37774</v>
       </c>
+      <c r="B154">
+        <v>7.19</v>
+      </c>
     </row>
     <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>37775</v>
       </c>
+      <c r="B155">
+        <v>7.45</v>
+      </c>
     </row>
     <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>37776</v>
       </c>
+      <c r="B156">
+        <v>8.19</v>
+      </c>
     </row>
     <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>37777</v>
       </c>
+      <c r="B157">
+        <v>8.92</v>
+      </c>
     </row>
     <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>37778</v>
       </c>
+      <c r="B158">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>37779</v>
       </c>
+      <c r="B159">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>37780</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>37781</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>37782</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>37783</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>37784</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>37785</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>37786</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>37787</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>37788</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>37789</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>37790</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>37791</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>37792</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B172">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>37793</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>37794</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B174">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>37795</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>37796</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>37797</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>37798</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>37799</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>37800</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B180">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>37801</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>37802</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>37803</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>37804</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>37805</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>37806</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>37807</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>37808</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>37809</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>37810</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>37811</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>37812</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>37813</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>37814</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>37815</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>37816</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>37817</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B197">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>37818</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B198">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>37819</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B199">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>37820</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B200">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>37821</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B201">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>37822</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>37823</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B203">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>37824</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B204">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>37825</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B205">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>37826</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>37827</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B207">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>37828</v>
+      </c>
+      <c r="B208">
+        <v>13.4</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>37829</v>
       </c>
+      <c r="B209">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>37830</v>
       </c>
+      <c r="B210">
+        <v>9.7200000000000006</v>
+      </c>
     </row>
     <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>37831</v>
       </c>
+      <c r="B211">
+        <v>8.16</v>
+      </c>
     </row>
     <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>37832</v>
       </c>
+      <c r="B212">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>37833</v>
       </c>
+      <c r="B213">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="5">
         <v>37834</v>
       </c>
-      <c r="B214" s="6"/>
+      <c r="B214" s="6">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="5">
         <v>37835</v>
       </c>
-      <c r="B215" s="6"/>
+      <c r="B215" s="6">
+        <v>9.5399999999999991</v>
+      </c>
     </row>
     <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="5">
         <v>37836</v>
       </c>
-      <c r="B216" s="6"/>
+      <c r="B216" s="6">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="5">
         <v>37837</v>
       </c>
-      <c r="B217" s="6"/>
+      <c r="B217" s="6">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="5">
         <v>37838</v>
       </c>
-      <c r="B218" s="6"/>
+      <c r="B218" s="6">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="5">
         <v>37839</v>
       </c>
-      <c r="B219" s="6"/>
+      <c r="B219" s="6">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
         <v>37840</v>
       </c>
-      <c r="B220" s="6"/>
+      <c r="B220" s="6">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="5">
         <v>37841</v>
       </c>
-      <c r="B221" s="6"/>
+      <c r="B221" s="6">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="5">
         <v>37842</v>
       </c>
-      <c r="B222" s="6"/>
+      <c r="B222" s="6">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="5">
         <v>37843</v>
       </c>
-      <c r="B223" s="6"/>
+      <c r="B223" s="6">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="5">
         <v>37844</v>
       </c>
-      <c r="B224" s="6"/>
+      <c r="B224" s="6">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="5">
         <v>37845</v>
       </c>
-      <c r="B225" s="6"/>
+      <c r="B225" s="6">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="5">
         <v>37846</v>
       </c>
-      <c r="B226" s="6"/>
+      <c r="B226" s="6">
+        <v>11</v>
+      </c>
     </row>
     <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="5">
         <v>37847</v>
       </c>
-      <c r="B227" s="6"/>
+      <c r="B227" s="6">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="5">
         <v>37848</v>
       </c>
-      <c r="B228" s="6"/>
+      <c r="B228" s="6">
+        <v>9.1199999999999992</v>
+      </c>
     </row>
     <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="5">
         <v>37849</v>
       </c>
-      <c r="B229" s="6"/>
+      <c r="B229" s="6">
+        <v>9.7200000000000006</v>
+      </c>
     </row>
     <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="5">
         <v>37850</v>
       </c>
-      <c r="B230" s="6"/>
+      <c r="B230" s="6">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="5">
         <v>37851</v>
       </c>
-      <c r="B231" s="6"/>
+      <c r="B231" s="6">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="5">
         <v>37852</v>
       </c>
-      <c r="B232" s="6"/>
+      <c r="B232" s="6">
+        <v>8.64</v>
+      </c>
     </row>
     <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="5">
         <v>37853</v>
       </c>
-      <c r="B233" s="6"/>
+      <c r="B233" s="6">
+        <v>8.33</v>
+      </c>
     </row>
     <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="5">
         <v>37854</v>
       </c>
-      <c r="B234" s="6"/>
+      <c r="B234" s="6">
+        <v>8.02</v>
+      </c>
     </row>
     <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="5">
         <v>37855</v>
       </c>
-      <c r="B235" s="6"/>
+      <c r="B235" s="6">
+        <v>7.67</v>
+      </c>
     </row>
     <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="5">
         <v>37856</v>
       </c>
-      <c r="B236" s="6"/>
+      <c r="B236" s="6">
+        <v>8.68</v>
+      </c>
     </row>
     <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="5">
         <v>37857</v>
       </c>
-      <c r="B237" s="6"/>
+      <c r="B237" s="6">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
         <v>37858</v>
       </c>
-      <c r="B238" s="6"/>
+      <c r="B238" s="6">
+        <v>9.1999999999999993</v>
+      </c>
     </row>
     <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
         <v>37859</v>
       </c>
-      <c r="B239" s="6"/>
+      <c r="B239" s="6">
+        <v>8.65</v>
+      </c>
     </row>
     <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="5">
         <v>37860</v>
       </c>
-      <c r="B240" s="6"/>
+      <c r="B240" s="6">
+        <v>7.58</v>
+      </c>
     </row>
     <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
         <v>37861</v>
       </c>
-      <c r="B241" s="6"/>
+      <c r="B241" s="6">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
     <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>37862</v>
       </c>
-      <c r="B242" s="6"/>
+      <c r="B242" s="6">
+        <v>31.7</v>
+      </c>
     </row>
     <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>37863</v>
       </c>
-      <c r="B243" s="6"/>
+      <c r="B243" s="6">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
         <v>37864</v>
       </c>
-      <c r="B244" s="6"/>
+      <c r="B244" s="6">
+        <v>9.08</v>
+      </c>
     </row>
     <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="5">

--- a/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
+++ b/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838FCD54-A4AE-CA4F-82EA-B5EEDC95BEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB30742-1B04-174B-BD00-51B8B933B54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20020" yWindow="1640" windowWidth="10220" windowHeight="17180" tabRatio="841" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20240" yWindow="800" windowWidth="10000" windowHeight="17180" tabRatio="841" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="9" r:id="rId1"/>
@@ -31292,8 +31292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B366"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31314,907 +31314,1209 @@
       <c r="A2" s="1">
         <v>44562</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="12">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44563</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44564</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="12">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44565</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44566</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44567</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="12">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44568</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="12">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44569</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="12">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44570</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="12">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44571</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="12">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44572</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="12">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44573</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="12">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44574</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="12">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44575</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44576</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="12">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44577</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="12">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44578</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="12">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44579</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="12">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44580</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="12">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44581</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="12">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44582</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="12">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44583</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="12">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44584</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="12">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44585</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="12">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44586</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="12">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44587</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="12">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44588</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="12">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44589</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="12">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44590</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="12">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44591</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="12">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44592</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="12">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44593</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="12">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44594</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="12">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44595</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="12">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44596</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="12">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44597</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="12">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44598</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="12">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44599</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="12">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44600</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="12">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44601</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44602</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="12">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44603</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="12">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44604</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="12">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44605</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="12">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44606</v>
       </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="12">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44607</v>
       </c>
-      <c r="B47" s="12"/>
+      <c r="B47" s="12">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44608</v>
       </c>
-      <c r="B48" s="12"/>
+      <c r="B48" s="12">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44609</v>
       </c>
-      <c r="B49" s="12"/>
+      <c r="B49" s="12">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44610</v>
       </c>
-      <c r="B50" s="12"/>
+      <c r="B50" s="12">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44611</v>
       </c>
-      <c r="B51" s="12"/>
+      <c r="B51" s="12">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44612</v>
       </c>
-      <c r="B52" s="12"/>
+      <c r="B52" s="12">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44613</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="12">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44614</v>
       </c>
-      <c r="B54" s="12"/>
+      <c r="B54" s="12">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44615</v>
       </c>
-      <c r="B55" s="12"/>
+      <c r="B55" s="12">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44616</v>
       </c>
-      <c r="B56" s="12"/>
+      <c r="B56" s="12">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44617</v>
       </c>
-      <c r="B57" s="12"/>
+      <c r="B57" s="12">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44618</v>
       </c>
-      <c r="B58" s="12"/>
+      <c r="B58" s="12">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44619</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="12">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44620</v>
       </c>
-      <c r="B60" s="12"/>
+      <c r="B60" s="12">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44621</v>
       </c>
-      <c r="B61" s="12"/>
+      <c r="B61" s="12">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44622</v>
       </c>
-      <c r="B62" s="12"/>
+      <c r="B62" s="12">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44623</v>
       </c>
-      <c r="B63" s="12"/>
+      <c r="B63" s="12">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44624</v>
       </c>
-      <c r="B64" s="12"/>
+      <c r="B64" s="12">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44625</v>
       </c>
-      <c r="B65" s="12"/>
+      <c r="B65" s="12">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44626</v>
       </c>
-      <c r="B66" s="12"/>
+      <c r="B66" s="12">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44627</v>
       </c>
-      <c r="B67" s="12"/>
+      <c r="B67" s="12">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44628</v>
       </c>
-      <c r="B68" s="12"/>
+      <c r="B68" s="12">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44629</v>
       </c>
-      <c r="B69" s="12"/>
+      <c r="B69" s="12">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44630</v>
       </c>
-      <c r="B70" s="12"/>
+      <c r="B70" s="12">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44631</v>
       </c>
-      <c r="B71" s="12"/>
+      <c r="B71" s="12">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44632</v>
       </c>
-      <c r="B72" s="12"/>
+      <c r="B72" s="12">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44633</v>
       </c>
-      <c r="B73" s="12"/>
+      <c r="B73" s="12">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44634</v>
       </c>
-      <c r="B74" s="12"/>
+      <c r="B74" s="12">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44635</v>
       </c>
-      <c r="B75" s="12"/>
+      <c r="B75" s="12">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44636</v>
       </c>
-      <c r="B76" s="12"/>
+      <c r="B76" s="12">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44637</v>
       </c>
-      <c r="B77" s="12"/>
+      <c r="B77" s="12">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44638</v>
       </c>
-      <c r="B78" s="12"/>
+      <c r="B78" s="12">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44639</v>
       </c>
-      <c r="B79" s="12"/>
+      <c r="B79" s="12">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44640</v>
       </c>
-      <c r="B80" s="12"/>
+      <c r="B80" s="12">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44641</v>
       </c>
-      <c r="B81" s="14"/>
+      <c r="B81" s="12">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44642</v>
       </c>
-      <c r="B82" s="12"/>
+      <c r="B82" s="12">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44643</v>
       </c>
-      <c r="B83" s="12"/>
+      <c r="B83" s="12">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44644</v>
       </c>
-      <c r="B84" s="12"/>
+      <c r="B84" s="12">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44645</v>
       </c>
-      <c r="B85" s="12"/>
+      <c r="B85" s="12">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44646</v>
       </c>
-      <c r="B86" s="12"/>
+      <c r="B86" s="12">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44647</v>
       </c>
-      <c r="B87" s="12"/>
+      <c r="B87" s="12">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44648</v>
       </c>
-      <c r="B88" s="12"/>
+      <c r="B88" s="12">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44649</v>
       </c>
-      <c r="B89" s="12"/>
+      <c r="B89" s="12">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44650</v>
       </c>
-      <c r="B90" s="12"/>
+      <c r="B90" s="12">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44651</v>
       </c>
-      <c r="B91" s="12"/>
+      <c r="B91" s="12">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44652</v>
       </c>
-      <c r="B92" s="12"/>
+      <c r="B92" s="12">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44653</v>
       </c>
-      <c r="B93" s="12"/>
+      <c r="B93" s="12">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44654</v>
       </c>
-      <c r="B94" s="12"/>
+      <c r="B94" s="12">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44655</v>
       </c>
-      <c r="B95" s="12"/>
+      <c r="B95" s="12">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44656</v>
       </c>
-      <c r="B96" s="12"/>
+      <c r="B96" s="12">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44657</v>
       </c>
-      <c r="B97" s="12"/>
+      <c r="B97" s="12">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44658</v>
       </c>
-      <c r="B98" s="12"/>
+      <c r="B98" s="12">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44659</v>
       </c>
-      <c r="B99" s="12"/>
+      <c r="B99" s="12">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44660</v>
       </c>
-      <c r="B100" s="12"/>
+      <c r="B100" s="12">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44661</v>
       </c>
-      <c r="B101" s="12"/>
+      <c r="B101" s="12">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44662</v>
       </c>
-      <c r="B102" s="12"/>
+      <c r="B102" s="12">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44663</v>
       </c>
-      <c r="B103" s="12"/>
+      <c r="B103" s="12">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44664</v>
       </c>
-      <c r="B104" s="12"/>
+      <c r="B104" s="12">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44665</v>
       </c>
-      <c r="B105" s="12"/>
+      <c r="B105" s="12">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44666</v>
       </c>
-      <c r="B106" s="12"/>
+      <c r="B106" s="12">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44667</v>
       </c>
-      <c r="B107" s="12"/>
+      <c r="B107" s="12">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44668</v>
       </c>
-      <c r="B108" s="12"/>
+      <c r="B108" s="12">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44669</v>
       </c>
-      <c r="B109" s="12"/>
+      <c r="B109" s="12">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44670</v>
       </c>
-      <c r="B110" s="12"/>
+      <c r="B110" s="12">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44671</v>
       </c>
-      <c r="B111" s="12"/>
+      <c r="B111" s="12">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44672</v>
       </c>
-      <c r="B112" s="12"/>
+      <c r="B112" s="12">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44673</v>
       </c>
-      <c r="B113" s="12"/>
+      <c r="B113" s="12">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44674</v>
       </c>
-      <c r="B114" s="12"/>
+      <c r="B114" s="12">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44675</v>
       </c>
-      <c r="B115" s="12"/>
+      <c r="B115" s="12">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44676</v>
       </c>
-      <c r="B116" s="12"/>
+      <c r="B116" s="12">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>44677</v>
       </c>
-      <c r="B117" s="12"/>
+      <c r="B117" s="12">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44678</v>
       </c>
-      <c r="B118" s="12"/>
+      <c r="B118" s="12">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44679</v>
       </c>
-      <c r="B119" s="12"/>
+      <c r="B119" s="12">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>44680</v>
       </c>
-      <c r="B120" s="12"/>
+      <c r="B120" s="12">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44681</v>
       </c>
-      <c r="B121" s="14"/>
+      <c r="B121" s="14">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44682</v>
       </c>
-      <c r="B122" s="12"/>
+      <c r="B122" s="12">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44683</v>
       </c>
-      <c r="B123" s="12"/>
+      <c r="B123" s="12">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44684</v>
       </c>
-      <c r="B124" s="12"/>
+      <c r="B124" s="12">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44685</v>
       </c>
-      <c r="B125" s="12"/>
+      <c r="B125" s="12">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44686</v>
       </c>
-      <c r="B126" s="12"/>
+      <c r="B126" s="12">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44687</v>
       </c>
-      <c r="B127" s="12"/>
+      <c r="B127" s="12">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44688</v>
       </c>
-      <c r="B128" s="12"/>
+      <c r="B128" s="12">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44689</v>
       </c>
-      <c r="B129" s="12"/>
+      <c r="B129" s="12">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44690</v>
       </c>
-      <c r="B130" s="12"/>
+      <c r="B130" s="12">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44691</v>
       </c>
-      <c r="B131" s="12"/>
+      <c r="B131" s="12">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44692</v>
       </c>
-      <c r="B132" s="12"/>
+      <c r="B132" s="12">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44693</v>
       </c>
-      <c r="B133" s="12"/>
+      <c r="B133" s="12">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44694</v>
       </c>
-      <c r="B134" s="12"/>
+      <c r="B134" s="12">
+        <v>2.93</v>
+      </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44695</v>
       </c>
-      <c r="B135" s="12"/>
+      <c r="B135" s="12">
+        <v>3.41</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44696</v>
       </c>
-      <c r="B136" s="12"/>
+      <c r="B136" s="12">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44697</v>
       </c>
-      <c r="B137" s="12"/>
+      <c r="B137" s="12">
+        <v>3.84</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44698</v>
       </c>
-      <c r="B138" s="12"/>
+      <c r="B138" s="12">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44699</v>
       </c>
-      <c r="B139" s="12"/>
+      <c r="B139" s="12">
+        <v>4.24</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44700</v>
       </c>
-      <c r="B140" s="12"/>
+      <c r="B140" s="12">
+        <v>4.91</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44701</v>
       </c>
-      <c r="B141" s="12"/>
+      <c r="B141" s="12">
+        <v>5.16</v>
+      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44702</v>
       </c>
-      <c r="B142" s="12"/>
+      <c r="B142" s="12">
+        <v>5.57</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44703</v>
       </c>
-      <c r="B143" s="12"/>
+      <c r="B143" s="12">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44704</v>
       </c>
-      <c r="B144" s="12"/>
+      <c r="B144" s="12">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44705</v>
       </c>
-      <c r="B145" s="12"/>
+      <c r="B145" s="12">
+        <v>6.13</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44706</v>
       </c>
-      <c r="B146" s="12"/>
+      <c r="B146" s="12">
+        <v>5.51</v>
+      </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44707</v>
       </c>
-      <c r="B147" s="12"/>
+      <c r="B147" s="12">
+        <v>4.43</v>
+      </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44708</v>
       </c>
-      <c r="B148" s="12"/>
+      <c r="B148" s="12">
+        <v>4.54</v>
+      </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44709</v>
       </c>
-      <c r="B149" s="12"/>
+      <c r="B149" s="12">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44710</v>
       </c>
-      <c r="B150" s="12"/>
+      <c r="B150" s="12">
+        <v>3.56</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44711</v>
       </c>
-      <c r="B151" s="12"/>
+      <c r="B151" s="12">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44712</v>
       </c>
-      <c r="B152" s="12"/>
+      <c r="B152" s="12">
+        <v>2.27</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
@@ -33510,8 +33812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="B304" sqref="B2:B304"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33531,633 +33833,993 @@
       <c r="A2" s="1">
         <v>44927</v>
       </c>
+      <c r="B2">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44928</v>
       </c>
+      <c r="B3">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44929</v>
       </c>
+      <c r="B4">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44930</v>
       </c>
+      <c r="B5">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44931</v>
       </c>
+      <c r="B6">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44932</v>
       </c>
+      <c r="B7">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44933</v>
       </c>
+      <c r="B8">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44934</v>
       </c>
+      <c r="B9">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44935</v>
       </c>
+      <c r="B10">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44936</v>
       </c>
+      <c r="B11">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44937</v>
       </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44938</v>
       </c>
+      <c r="B13">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44939</v>
       </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44940</v>
       </c>
+      <c r="B15">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44941</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44942</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44943</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44944</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44945</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44946</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44947</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44948</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44949</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44950</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44951</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44952</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44953</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44954</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44955</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44956</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44957</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44958</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44959</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44960</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44961</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44962</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44963</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44964</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44965</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44966</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44967</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44968</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44969</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44970</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44971</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44972</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44973</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44974</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44975</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44976</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44977</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44978</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44979</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44980</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44981</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44982</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44983</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44984</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44985</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44986</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44987</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44988</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44989</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44990</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44991</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44992</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44993</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44994</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44996</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44997</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44998</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44999</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>45000</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>45001</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>45002</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>45003</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>45004</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>45005</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>45006</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>45007</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>45008</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>45009</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>45010</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>45011</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>45012</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>45013</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>45014</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>45015</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>45016</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>45017</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>45018</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>45019</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>45020</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>45021</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>45022</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>45023</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>45024</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>45025</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>45026</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>45027</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>45028</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>45029</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>45030</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>45032</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>45033</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>45034</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>45035</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>45036</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>45037</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>45038</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>45039</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>45040</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>45041</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>45042</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>45043</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>45044</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>45045</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>45046</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>45047</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>45048</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>45049</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>45050</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>45051</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>45052</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>45053</v>
       </c>
@@ -38183,8 +38845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+    <sheetView topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -40148,733 +40810,977 @@
       <c r="A245" s="5">
         <v>37865</v>
       </c>
-      <c r="B245" s="6"/>
+      <c r="B245" s="6">
+        <v>5.41</v>
+      </c>
     </row>
     <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="5">
         <v>37866</v>
       </c>
-      <c r="B246" s="6"/>
+      <c r="B246" s="6">
+        <v>3.82</v>
+      </c>
     </row>
     <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
         <v>37867</v>
       </c>
-      <c r="B247" s="6"/>
+      <c r="B247" s="6">
+        <v>3.16</v>
+      </c>
     </row>
     <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
         <v>37868</v>
       </c>
-      <c r="B248" s="6"/>
+      <c r="B248" s="6">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
         <v>37869</v>
       </c>
-      <c r="B249" s="6"/>
+      <c r="B249" s="6">
+        <v>2.88</v>
+      </c>
     </row>
     <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
         <v>37870</v>
       </c>
-      <c r="B250" s="6"/>
+      <c r="B250" s="6">
+        <v>2.66</v>
+      </c>
     </row>
     <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="5">
         <v>37871</v>
       </c>
-      <c r="B251" s="6"/>
+      <c r="B251" s="6">
+        <v>2.39</v>
+      </c>
     </row>
     <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
         <v>37872</v>
       </c>
-      <c r="B252" s="6"/>
+      <c r="B252" s="6">
+        <v>2.31</v>
+      </c>
     </row>
     <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="5">
         <v>37873</v>
       </c>
-      <c r="B253" s="6"/>
+      <c r="B253" s="6">
+        <v>2.12</v>
+      </c>
     </row>
     <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="5">
         <v>37874</v>
       </c>
-      <c r="B254" s="6"/>
+      <c r="B254" s="6">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="5">
         <v>37875</v>
       </c>
-      <c r="B255" s="6"/>
+      <c r="B255" s="6">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="5">
         <v>37876</v>
       </c>
-      <c r="B256" s="6"/>
+      <c r="B256" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
         <v>37877</v>
       </c>
-      <c r="B257" s="6"/>
+      <c r="B257" s="6">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
         <v>37878</v>
       </c>
-      <c r="B258" s="6"/>
+      <c r="B258" s="6">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
         <v>37879</v>
       </c>
-      <c r="B259" s="6"/>
+      <c r="B259" s="6">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
         <v>37880</v>
       </c>
-      <c r="B260" s="6"/>
+      <c r="B260" s="6">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
         <v>37881</v>
       </c>
-      <c r="B261" s="6"/>
+      <c r="B261" s="6">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
         <v>37882</v>
       </c>
-      <c r="B262" s="6"/>
+      <c r="B262" s="6">
+        <v>2.0699999999999998</v>
+      </c>
     </row>
     <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>37883</v>
       </c>
-      <c r="B263" s="6"/>
+      <c r="B263" s="6">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
         <v>37884</v>
       </c>
-      <c r="B264" s="6"/>
+      <c r="B264" s="6">
+        <v>3.01</v>
+      </c>
     </row>
     <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
         <v>37885</v>
       </c>
-      <c r="B265" s="6"/>
+      <c r="B265" s="6">
+        <v>2.83</v>
+      </c>
     </row>
     <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
         <v>37886</v>
       </c>
-      <c r="B266" s="6"/>
+      <c r="B266" s="6">
+        <v>2.58</v>
+      </c>
     </row>
     <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
         <v>37887</v>
       </c>
-      <c r="B267" s="6"/>
+      <c r="B267" s="6">
+        <v>2.1800000000000002</v>
+      </c>
     </row>
     <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="5">
         <v>37888</v>
       </c>
-      <c r="B268" s="6"/>
+      <c r="B268" s="6">
+        <v>2.0099999999999998</v>
+      </c>
     </row>
     <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
         <v>37889</v>
       </c>
-      <c r="B269" s="6"/>
+      <c r="B269" s="6">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="5">
         <v>37890</v>
       </c>
-      <c r="B270" s="6"/>
+      <c r="B270" s="6">
+        <v>1.46</v>
+      </c>
     </row>
     <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="5">
         <v>37891</v>
       </c>
-      <c r="B271" s="6"/>
+      <c r="B271" s="6">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="5">
         <v>37892</v>
       </c>
-      <c r="B272" s="6"/>
+      <c r="B272" s="6">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
         <v>37893</v>
       </c>
-      <c r="B273" s="6"/>
+      <c r="B273" s="6">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="5">
         <v>37894</v>
       </c>
-      <c r="B274" s="6"/>
+      <c r="B274" s="6">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>37895</v>
       </c>
-      <c r="B275" s="6"/>
+      <c r="B275" s="6">
+        <v>1.1599999999999999</v>
+      </c>
     </row>
     <row r="276" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>37896</v>
       </c>
-      <c r="B276" s="6"/>
+      <c r="B276" s="6">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>37897</v>
       </c>
-      <c r="B277" s="6"/>
+      <c r="B277" s="6">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>37898</v>
       </c>
-      <c r="B278" s="6"/>
+      <c r="B278" s="6">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>37899</v>
       </c>
-      <c r="B279" s="6"/>
+      <c r="B279" s="6">
+        <v>1.86</v>
+      </c>
     </row>
     <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>37900</v>
       </c>
-      <c r="B280" s="6"/>
+      <c r="B280" s="6">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>37901</v>
       </c>
-      <c r="B281" s="6"/>
+      <c r="B281" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="282" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>37902</v>
       </c>
-      <c r="B282" s="6"/>
+      <c r="B282" s="6">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>37903</v>
       </c>
-      <c r="B283" s="6"/>
+      <c r="B283" s="6">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>37904</v>
       </c>
-      <c r="B284" s="6"/>
+      <c r="B284" s="6">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>37905</v>
       </c>
-      <c r="B285" s="6"/>
+      <c r="B285" s="6">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>37906</v>
       </c>
-      <c r="B286" s="6"/>
+      <c r="B286" s="6">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>37907</v>
       </c>
-      <c r="B287" s="6"/>
+      <c r="B287" s="6">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>37908</v>
       </c>
-      <c r="B288" s="6"/>
+      <c r="B288" s="6">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="5">
         <v>37909</v>
       </c>
-      <c r="B289" s="6"/>
+      <c r="B289" s="6">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="5">
         <v>37910</v>
       </c>
-      <c r="B290" s="6"/>
+      <c r="B290" s="6">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="291" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="5">
         <v>37911</v>
       </c>
-      <c r="B291" s="6"/>
+      <c r="B291" s="6">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="5">
         <v>37912</v>
       </c>
-      <c r="B292" s="6"/>
+      <c r="B292" s="6">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="5">
         <v>37913</v>
       </c>
-      <c r="B293" s="6"/>
+      <c r="B293" s="6">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="5">
         <v>37914</v>
       </c>
-      <c r="B294" s="6"/>
+      <c r="B294" s="6">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="5">
         <v>37915</v>
       </c>
-      <c r="B295" s="6"/>
+      <c r="B295" s="6">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="5">
         <v>37916</v>
       </c>
-      <c r="B296" s="6"/>
+      <c r="B296" s="6">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="5">
         <v>37917</v>
       </c>
-      <c r="B297" s="6"/>
+      <c r="B297" s="6">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="5">
         <v>37918</v>
       </c>
-      <c r="B298" s="6"/>
+      <c r="B298" s="6">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="5">
         <v>37919</v>
       </c>
-      <c r="B299" s="6"/>
+      <c r="B299" s="6">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="5">
         <v>37920</v>
       </c>
-      <c r="B300" s="6"/>
+      <c r="B300" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="5">
         <v>37921</v>
       </c>
-      <c r="B301" s="6"/>
+      <c r="B301" s="6">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="302" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="5">
         <v>37922</v>
       </c>
-      <c r="B302" s="6"/>
+      <c r="B302" s="6">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="5">
         <v>37923</v>
       </c>
-      <c r="B303" s="6"/>
+      <c r="B303" s="6">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="5">
         <v>37924</v>
       </c>
-      <c r="B304" s="6"/>
+      <c r="B304" s="6">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="5">
         <v>37925</v>
       </c>
-      <c r="B305" s="6"/>
+      <c r="B305" s="6">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="5">
         <v>37926</v>
       </c>
-      <c r="B306" s="6"/>
+      <c r="B306" s="6">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="5">
         <v>37927</v>
       </c>
-      <c r="B307" s="6"/>
+      <c r="B307" s="6">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="5">
         <v>37928</v>
       </c>
-      <c r="B308" s="6"/>
+      <c r="B308" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="5">
         <v>37929</v>
       </c>
-      <c r="B309" s="6"/>
+      <c r="B309" s="6">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="5">
         <v>37930</v>
       </c>
-      <c r="B310" s="6"/>
+      <c r="B310" s="6">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="311" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="5">
         <v>37931</v>
       </c>
-      <c r="B311" s="6"/>
+      <c r="B311" s="6">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="5">
         <v>37932</v>
       </c>
-      <c r="B312" s="6"/>
+      <c r="B312" s="6">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="313" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="5">
         <v>37933</v>
       </c>
-      <c r="B313" s="6"/>
+      <c r="B313" s="6">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="5">
         <v>37934</v>
       </c>
-      <c r="B314" s="6"/>
+      <c r="B314" s="6">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="5">
         <v>37935</v>
       </c>
-      <c r="B315" s="6"/>
+      <c r="B315" s="6">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="5">
         <v>37936</v>
       </c>
-      <c r="B316" s="6"/>
+      <c r="B316" s="6">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="5">
         <v>37937</v>
       </c>
-      <c r="B317" s="6"/>
+      <c r="B317" s="6">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="318" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="5">
         <v>37938</v>
       </c>
-      <c r="B318" s="6"/>
+      <c r="B318" s="6">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="5">
         <v>37939</v>
       </c>
-      <c r="B319" s="6"/>
+      <c r="B319" s="6">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="5">
         <v>37940</v>
       </c>
-      <c r="B320" s="6"/>
+      <c r="B320" s="6">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="5">
         <v>37941</v>
       </c>
-      <c r="B321" s="6"/>
+      <c r="B321" s="6">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="5">
         <v>37942</v>
       </c>
-      <c r="B322" s="6"/>
+      <c r="B322" s="6">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="323" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="5">
         <v>37943</v>
       </c>
-      <c r="B323" s="6"/>
+      <c r="B323" s="6">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="324" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="5">
         <v>37944</v>
       </c>
-      <c r="B324" s="6"/>
+      <c r="B324" s="6">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="5">
         <v>37945</v>
       </c>
-      <c r="B325" s="6"/>
+      <c r="B325" s="6">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="5">
         <v>37946</v>
       </c>
-      <c r="B326" s="6"/>
+      <c r="B326" s="6">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="5">
         <v>37947</v>
       </c>
-      <c r="B327" s="6"/>
+      <c r="B327" s="6">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="328" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="5">
         <v>37948</v>
       </c>
-      <c r="B328" s="6"/>
+      <c r="B328" s="6">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="5">
         <v>37949</v>
       </c>
-      <c r="B329" s="6"/>
+      <c r="B329" s="6">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="330" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="5">
         <v>37950</v>
       </c>
-      <c r="B330" s="6"/>
+      <c r="B330" s="6">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="331" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="5">
         <v>37951</v>
       </c>
-      <c r="B331" s="6"/>
+      <c r="B331" s="6">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="332" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="5">
         <v>37952</v>
       </c>
-      <c r="B332" s="6"/>
+      <c r="B332" s="6">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="333" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="5">
         <v>37953</v>
       </c>
-      <c r="B333" s="6"/>
+      <c r="B333" s="6">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="5">
         <v>37954</v>
       </c>
-      <c r="B334" s="6"/>
+      <c r="B334" s="6">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="5">
         <v>37955</v>
       </c>
-      <c r="B335" s="6"/>
+      <c r="B335" s="6">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="5">
         <v>37956</v>
       </c>
-      <c r="B336" s="6"/>
+      <c r="B336" s="6">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="5">
         <v>37957</v>
       </c>
-      <c r="B337" s="6"/>
+      <c r="B337" s="6">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="5">
         <v>37958</v>
       </c>
-      <c r="B338" s="6"/>
+      <c r="B338" s="6">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="5">
         <v>37959</v>
       </c>
-      <c r="B339" s="6"/>
+      <c r="B339" s="6">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="5">
         <v>37960</v>
       </c>
-      <c r="B340" s="6"/>
+      <c r="B340" s="6">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="5">
         <v>37961</v>
       </c>
-      <c r="B341" s="6"/>
+      <c r="B341" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="342" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="5">
         <v>37962</v>
       </c>
-      <c r="B342" s="6"/>
+      <c r="B342" s="6">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="5">
         <v>37963</v>
       </c>
-      <c r="B343" s="6"/>
+      <c r="B343" s="6">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="5">
         <v>37964</v>
       </c>
-      <c r="B344" s="6"/>
+      <c r="B344" s="6">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="5">
         <v>37965</v>
       </c>
-      <c r="B345" s="6"/>
+      <c r="B345" s="6">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="5">
         <v>37966</v>
       </c>
-      <c r="B346" s="6"/>
+      <c r="B346" s="6">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="5">
         <v>37967</v>
       </c>
-      <c r="B347" s="6"/>
+      <c r="B347" s="6">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="348" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="5">
         <v>37968</v>
       </c>
-      <c r="B348" s="6"/>
+      <c r="B348" s="6">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="5">
         <v>37969</v>
       </c>
-      <c r="B349" s="6"/>
+      <c r="B349" s="6">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="5">
         <v>37970</v>
       </c>
-      <c r="B350" s="6"/>
+      <c r="B350" s="6">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="5">
         <v>37971</v>
       </c>
-      <c r="B351" s="6"/>
+      <c r="B351" s="6">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="352" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="5">
         <v>37972</v>
       </c>
-      <c r="B352" s="6"/>
+      <c r="B352" s="6">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="5">
         <v>37973</v>
       </c>
-      <c r="B353" s="6"/>
+      <c r="B353" s="6">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="5">
         <v>37974</v>
       </c>
-      <c r="B354" s="6"/>
+      <c r="B354" s="6">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="355" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="5">
         <v>37975</v>
       </c>
-      <c r="B355" s="6"/>
+      <c r="B355" s="6">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="5">
         <v>37976</v>
       </c>
-      <c r="B356" s="6"/>
+      <c r="B356" s="6">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="357" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="5">
         <v>37977</v>
       </c>
-      <c r="B357" s="6"/>
+      <c r="B357" s="6">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="5">
         <v>37978</v>
       </c>
-      <c r="B358" s="6"/>
+      <c r="B358" s="6">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="5">
         <v>37979</v>
       </c>
-      <c r="B359" s="6"/>
+      <c r="B359" s="6">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="360" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="5">
         <v>37980</v>
       </c>
-      <c r="B360" s="6"/>
+      <c r="B360" s="6">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="5">
         <v>37981</v>
       </c>
-      <c r="B361" s="6"/>
+      <c r="B361" s="6">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="5">
         <v>37982</v>
       </c>
-      <c r="B362" s="6"/>
+      <c r="B362" s="6">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="5">
         <v>37983</v>
       </c>
-      <c r="B363" s="6"/>
+      <c r="B363" s="6">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="5">
         <v>37984</v>
       </c>
-      <c r="B364" s="6"/>
+      <c r="B364" s="6">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="5">
         <v>37985</v>
       </c>
-      <c r="B365" s="6"/>
+      <c r="B365" s="6">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="5">
         <v>37986</v>
       </c>
-      <c r="B366" s="6"/>
+      <c r="B366" s="6">
+        <v>0.22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40887,7 +41793,7 @@
   <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
+++ b/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB30742-1B04-174B-BD00-51B8B933B54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFAD47E-5088-AA4C-A739-4BFB51273DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20240" yWindow="800" windowWidth="10000" windowHeight="17180" tabRatio="841" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31292,8 +31292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32522,367 +32522,489 @@
       <c r="A153" s="1">
         <v>44713</v>
       </c>
-      <c r="B153" s="12"/>
+      <c r="B153" s="12">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44714</v>
       </c>
-      <c r="B154" s="12"/>
+      <c r="B154" s="12">
+        <v>3.08</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44715</v>
       </c>
-      <c r="B155" s="12"/>
+      <c r="B155" s="12">
+        <v>4.72</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44716</v>
       </c>
-      <c r="B156" s="12"/>
+      <c r="B156" s="12">
+        <v>6.34</v>
+      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44717</v>
       </c>
-      <c r="B157" s="12"/>
+      <c r="B157" s="12">
+        <v>6.93</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44718</v>
       </c>
-      <c r="B158" s="12"/>
+      <c r="B158" s="12">
+        <v>6.41</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44719</v>
       </c>
-      <c r="B159" s="12"/>
+      <c r="B159" s="12">
+        <v>6.38</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44720</v>
       </c>
-      <c r="B160" s="12"/>
+      <c r="B160" s="12">
+        <v>4.97</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44721</v>
       </c>
-      <c r="B161" s="14"/>
+      <c r="B161" s="13">
+        <v>4.1100000000000003</v>
+      </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44722</v>
       </c>
-      <c r="B162" s="12"/>
+      <c r="B162" s="12">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44723</v>
       </c>
-      <c r="B163" s="12"/>
+      <c r="B163" s="12">
+        <v>3.76</v>
+      </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44724</v>
       </c>
-      <c r="B164" s="12"/>
+      <c r="B164" s="12">
+        <v>4.18</v>
+      </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44725</v>
       </c>
-      <c r="B165" s="12"/>
+      <c r="B165" s="12">
+        <v>5.0199999999999996</v>
+      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44726</v>
       </c>
-      <c r="B166" s="12"/>
+      <c r="B166" s="12">
+        <v>4.99</v>
+      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44727</v>
       </c>
-      <c r="B167" s="12"/>
+      <c r="B167" s="12">
+        <v>5.33</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44728</v>
       </c>
-      <c r="B168" s="12"/>
+      <c r="B168" s="12">
+        <v>5.88</v>
+      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44729</v>
       </c>
-      <c r="B169" s="12"/>
+      <c r="B169" s="12">
+        <v>6.09</v>
+      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44730</v>
       </c>
-      <c r="B170" s="12"/>
+      <c r="B170" s="12">
+        <v>6.22</v>
+      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44731</v>
       </c>
-      <c r="B171" s="12"/>
+      <c r="B171" s="12">
+        <v>7.43</v>
+      </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44732</v>
       </c>
-      <c r="B172" s="12"/>
+      <c r="B172" s="12">
+        <v>7.89</v>
+      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44733</v>
       </c>
-      <c r="B173" s="12"/>
+      <c r="B173" s="12">
+        <v>8.33</v>
+      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44734</v>
       </c>
-      <c r="B174" s="12"/>
+      <c r="B174" s="12">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44735</v>
       </c>
-      <c r="B175" s="12"/>
+      <c r="B175" s="12">
+        <v>9.51</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44736</v>
       </c>
-      <c r="B176" s="12"/>
+      <c r="B176" s="12">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44737</v>
       </c>
-      <c r="B177" s="12"/>
+      <c r="B177" s="12">
+        <v>7.53</v>
+      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44738</v>
       </c>
-      <c r="B178" s="12"/>
+      <c r="B178" s="12">
+        <v>7.04</v>
+      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44739</v>
       </c>
-      <c r="B179" s="12"/>
+      <c r="B179" s="12">
+        <v>9.0500000000000007</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44740</v>
       </c>
-      <c r="B180" s="12"/>
+      <c r="B180" s="12">
+        <v>9.67</v>
+      </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44741</v>
       </c>
-      <c r="B181" s="12"/>
+      <c r="B181" s="12">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44742</v>
       </c>
-      <c r="B182" s="12"/>
+      <c r="B182" s="12">
+        <v>8.58</v>
+      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44743</v>
       </c>
-      <c r="B183" s="12"/>
+      <c r="B183" s="12">
+        <v>8</v>
+      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44744</v>
       </c>
-      <c r="B184" s="12"/>
+      <c r="B184" s="12">
+        <v>7.32</v>
+      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44745</v>
       </c>
-      <c r="B185" s="12"/>
+      <c r="B185" s="12">
+        <v>7.95</v>
+      </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44746</v>
       </c>
-      <c r="B186" s="12"/>
+      <c r="B186" s="12">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44747</v>
       </c>
-      <c r="B187" s="12"/>
+      <c r="B187" s="12">
+        <v>7.82</v>
+      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44748</v>
       </c>
-      <c r="B188" s="12"/>
+      <c r="B188" s="12">
+        <v>7.26</v>
+      </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44749</v>
       </c>
-      <c r="B189" s="12"/>
+      <c r="B189" s="12">
+        <v>6.53</v>
+      </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44750</v>
       </c>
-      <c r="B190" s="12"/>
+      <c r="B190" s="12">
+        <v>6.19</v>
+      </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44751</v>
       </c>
-      <c r="B191" s="12"/>
+      <c r="B191" s="12">
+        <v>6.12</v>
+      </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44752</v>
       </c>
-      <c r="B192" s="12"/>
+      <c r="B192" s="12">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44753</v>
       </c>
-      <c r="B193" s="12"/>
+      <c r="B193" s="12">
+        <v>6.27</v>
+      </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44754</v>
       </c>
-      <c r="B194" s="12"/>
+      <c r="B194" s="12">
+        <v>6.81</v>
+      </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44755</v>
       </c>
-      <c r="B195" s="12"/>
+      <c r="B195" s="12">
+        <v>7.59</v>
+      </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44756</v>
       </c>
-      <c r="B196" s="12"/>
+      <c r="B196" s="12">
+        <v>8.1199999999999992</v>
+      </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44757</v>
       </c>
-      <c r="B197" s="12"/>
+      <c r="B197" s="12">
+        <v>8.56</v>
+      </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44758</v>
       </c>
-      <c r="B198" s="12"/>
+      <c r="B198" s="12">
+        <v>8.42</v>
+      </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44759</v>
       </c>
-      <c r="B199" s="12"/>
+      <c r="B199" s="12">
+        <v>8.06</v>
+      </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44760</v>
       </c>
-      <c r="B200" s="12"/>
+      <c r="B200" s="12">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44761</v>
       </c>
-      <c r="B201" s="14"/>
+      <c r="B201" s="14">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44762</v>
       </c>
-      <c r="B202" s="12"/>
+      <c r="B202" s="12">
+        <v>10.199999999999999</v>
+      </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44763</v>
       </c>
-      <c r="B203" s="12"/>
+      <c r="B203" s="12">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44764</v>
       </c>
-      <c r="B204" s="12"/>
+      <c r="B204" s="12">
+        <v>10.199999999999999</v>
+      </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44765</v>
       </c>
-      <c r="B205" s="12"/>
+      <c r="B205" s="12">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44766</v>
       </c>
-      <c r="B206" s="12"/>
+      <c r="B206" s="12">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44767</v>
       </c>
-      <c r="B207" s="12"/>
+      <c r="B207" s="12">
+        <v>8.2100000000000009</v>
+      </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44768</v>
       </c>
-      <c r="B208" s="12"/>
+      <c r="B208" s="12">
+        <v>8.34</v>
+      </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44769</v>
       </c>
-      <c r="B209" s="12"/>
+      <c r="B209" s="12">
+        <v>8.7100000000000009</v>
+      </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44770</v>
       </c>
-      <c r="B210" s="12"/>
+      <c r="B210" s="12">
+        <v>6.81</v>
+      </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44771</v>
       </c>
-      <c r="B211" s="12"/>
+      <c r="B211" s="12">
+        <v>5.68</v>
+      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44772</v>
       </c>
-      <c r="B212" s="12"/>
+      <c r="B212" s="12">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44773</v>
       </c>
-      <c r="B213" s="12"/>
+      <c r="B213" s="12">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">

--- a/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
+++ b/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFAD47E-5088-AA4C-A739-4BFB51273DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755C1203-6CCC-E945-861D-9729ACA1FAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20240" yWindow="800" windowWidth="10000" windowHeight="17180" tabRatio="841" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20620" yWindow="760" windowWidth="10000" windowHeight="17180" tabRatio="841" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="9" r:id="rId1"/>
@@ -31292,8 +31292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B214" sqref="B214"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33010,367 +33010,489 @@
       <c r="A214" s="1">
         <v>44774</v>
       </c>
-      <c r="B214" s="12"/>
+      <c r="B214" s="12">
+        <v>6.44</v>
+      </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44775</v>
       </c>
-      <c r="B215" s="12"/>
+      <c r="B215" s="12">
+        <v>7.43</v>
+      </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44776</v>
       </c>
-      <c r="B216" s="12"/>
+      <c r="B216" s="12">
+        <v>7.24</v>
+      </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44777</v>
       </c>
-      <c r="B217" s="12"/>
+      <c r="B217" s="12">
+        <v>8.44</v>
+      </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44778</v>
       </c>
-      <c r="B218" s="12"/>
+      <c r="B218" s="12">
+        <v>9.16</v>
+      </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44779</v>
       </c>
-      <c r="B219" s="12"/>
+      <c r="B219" s="12">
+        <v>7.68</v>
+      </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44780</v>
       </c>
-      <c r="B220" s="12"/>
+      <c r="B220" s="12">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>44781</v>
       </c>
-      <c r="B221" s="12"/>
+      <c r="B221" s="12">
+        <v>6.54</v>
+      </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44782</v>
       </c>
-      <c r="B222" s="12"/>
+      <c r="B222" s="12">
+        <v>6.57</v>
+      </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44783</v>
       </c>
-      <c r="B223" s="12"/>
+      <c r="B223" s="12">
+        <v>6.29</v>
+      </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44784</v>
       </c>
-      <c r="B224" s="12"/>
+      <c r="B224" s="12">
+        <v>6.36</v>
+      </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44785</v>
       </c>
-      <c r="B225" s="12"/>
+      <c r="B225" s="12">
+        <v>6.05</v>
+      </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44786</v>
       </c>
-      <c r="B226" s="12"/>
+      <c r="B226" s="12">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44787</v>
       </c>
-      <c r="B227" s="12"/>
+      <c r="B227" s="12">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44788</v>
       </c>
-      <c r="B228" s="12"/>
+      <c r="B228" s="12">
+        <v>5.34</v>
+      </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44789</v>
       </c>
-      <c r="B229" s="12"/>
+      <c r="B229" s="12">
+        <v>5.23</v>
+      </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44790</v>
       </c>
-      <c r="B230" s="12"/>
+      <c r="B230" s="12">
+        <v>5.69</v>
+      </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44791</v>
       </c>
-      <c r="B231" s="12"/>
+      <c r="B231" s="12">
+        <v>7.94</v>
+      </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44792</v>
       </c>
-      <c r="B232" s="12"/>
+      <c r="B232" s="12">
+        <v>5.91</v>
+      </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44793</v>
       </c>
-      <c r="B233" s="12"/>
+      <c r="B233" s="12">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44794</v>
       </c>
-      <c r="B234" s="12"/>
+      <c r="B234" s="12">
+        <v>5.09</v>
+      </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44795</v>
       </c>
-      <c r="B235" s="12"/>
+      <c r="B235" s="12">
+        <v>4.74</v>
+      </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44796</v>
       </c>
-      <c r="B236" s="12"/>
+      <c r="B236" s="12">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44797</v>
       </c>
-      <c r="B237" s="12"/>
+      <c r="B237" s="12">
+        <v>4.71</v>
+      </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44798</v>
       </c>
-      <c r="B238" s="12"/>
+      <c r="B238" s="12">
+        <v>4.8899999999999997</v>
+      </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44799</v>
       </c>
-      <c r="B239" s="12"/>
+      <c r="B239" s="12">
+        <v>5.14</v>
+      </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44800</v>
       </c>
-      <c r="B240" s="12"/>
+      <c r="B240" s="12">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44801</v>
       </c>
-      <c r="B241" s="15"/>
+      <c r="B241" s="15">
+        <v>5.29</v>
+      </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44802</v>
       </c>
-      <c r="B242" s="12"/>
+      <c r="B242" s="12">
+        <v>5.41</v>
+      </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44803</v>
       </c>
-      <c r="B243" s="12"/>
+      <c r="B243" s="12">
+        <v>5.24</v>
+      </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44804</v>
       </c>
-      <c r="B244" s="12"/>
+      <c r="B244" s="12">
+        <v>4.84</v>
+      </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44805</v>
       </c>
-      <c r="B245" s="12"/>
+      <c r="B245" s="12">
+        <v>4.17</v>
+      </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44806</v>
       </c>
-      <c r="B246" s="12"/>
+      <c r="B246" s="12">
+        <v>3.82</v>
+      </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44807</v>
       </c>
-      <c r="B247" s="12"/>
+      <c r="B247" s="12">
+        <v>4.46</v>
+      </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44808</v>
       </c>
-      <c r="B248" s="12"/>
+      <c r="B248" s="12">
+        <v>3.68</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44809</v>
       </c>
-      <c r="B249" s="12"/>
+      <c r="B249" s="12">
+        <v>3.62</v>
+      </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44810</v>
       </c>
-      <c r="B250" s="12"/>
+      <c r="B250" s="12">
+        <v>4.0199999999999996</v>
+      </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44811</v>
       </c>
-      <c r="B251" s="12"/>
+      <c r="B251" s="12">
+        <v>4.9400000000000004</v>
+      </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44812</v>
       </c>
-      <c r="B252" s="16"/>
+      <c r="B252" s="16">
+        <v>8.82</v>
+      </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44813</v>
       </c>
-      <c r="B253" s="16"/>
+      <c r="B253" s="16">
+        <v>5.68</v>
+      </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44814</v>
       </c>
-      <c r="B254" s="16"/>
+      <c r="B254" s="16">
+        <v>3.96</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44815</v>
       </c>
-      <c r="B255" s="16"/>
+      <c r="B255" s="16">
+        <v>2.99</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44816</v>
       </c>
-      <c r="B256" s="16"/>
+      <c r="B256" s="16">
+        <v>2.4700000000000002</v>
+      </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44817</v>
       </c>
-      <c r="B257" s="16"/>
+      <c r="B257" s="16">
+        <v>2.57</v>
+      </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44818</v>
       </c>
-      <c r="B258" s="16"/>
+      <c r="B258" s="16">
+        <v>4.18</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44819</v>
       </c>
-      <c r="B259" s="16"/>
+      <c r="B259" s="16">
+        <v>4.71</v>
+      </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44820</v>
       </c>
-      <c r="B260" s="16"/>
+      <c r="B260" s="16">
+        <v>3.66</v>
+      </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44821</v>
       </c>
-      <c r="B261" s="16"/>
+      <c r="B261" s="16">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44822</v>
       </c>
-      <c r="B262" s="16"/>
+      <c r="B262" s="16">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44823</v>
       </c>
-      <c r="B263" s="16"/>
+      <c r="B263" s="16">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44824</v>
       </c>
-      <c r="B264" s="16"/>
+      <c r="B264" s="16">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44825</v>
       </c>
-      <c r="B265" s="16"/>
+      <c r="B265" s="16">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44826</v>
       </c>
-      <c r="B266" s="16"/>
+      <c r="B266" s="16">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44827</v>
       </c>
-      <c r="B267" s="16"/>
+      <c r="B267" s="16">
+        <v>1.1399999999999999</v>
+      </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44828</v>
       </c>
-      <c r="B268" s="16"/>
+      <c r="B268" s="16">
+        <v>1.06</v>
+      </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44829</v>
       </c>
-      <c r="B269" s="16"/>
+      <c r="B269" s="16">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44830</v>
       </c>
-      <c r="B270" s="16"/>
+      <c r="B270" s="16">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44831</v>
       </c>
-      <c r="B271" s="16"/>
+      <c r="B271" s="16">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44832</v>
       </c>
-      <c r="B272" s="16"/>
+      <c r="B272" s="16">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44833</v>
       </c>
-      <c r="B273" s="16"/>
+      <c r="B273" s="16">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44834</v>
       </c>
-      <c r="B274" s="16"/>
+      <c r="B274" s="16">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">

--- a/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
+++ b/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755C1203-6CCC-E945-861D-9729ACA1FAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AA95D3-A80A-8A4C-9430-C7DDFBFE03C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20620" yWindow="760" windowWidth="10000" windowHeight="17180" tabRatio="841" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24760" yWindow="1020" windowWidth="10300" windowHeight="17880" tabRatio="841" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="9" r:id="rId1"/>
@@ -31292,8 +31292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33498,367 +33498,489 @@
       <c r="A275" s="1">
         <v>44835</v>
       </c>
-      <c r="B275" s="16"/>
+      <c r="B275" s="16">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44836</v>
       </c>
-      <c r="B276" s="16"/>
+      <c r="B276" s="16">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44837</v>
       </c>
-      <c r="B277" s="16"/>
+      <c r="B277" s="16">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44838</v>
       </c>
-      <c r="B278" s="16"/>
+      <c r="B278" s="16">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44839</v>
       </c>
-      <c r="B279" s="16"/>
+      <c r="B279" s="16">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44840</v>
       </c>
-      <c r="B280" s="16"/>
+      <c r="B280" s="16">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44841</v>
       </c>
-      <c r="B281" s="16"/>
+      <c r="B281" s="16">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44842</v>
       </c>
-      <c r="B282" s="16"/>
+      <c r="B282" s="16">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44843</v>
       </c>
-      <c r="B283" s="16"/>
+      <c r="B283" s="16">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44844</v>
       </c>
-      <c r="B284" s="16"/>
+      <c r="B284" s="16">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44845</v>
       </c>
-      <c r="B285" s="16"/>
+      <c r="B285" s="16">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44846</v>
       </c>
-      <c r="B286" s="16"/>
+      <c r="B286" s="16">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44847</v>
       </c>
-      <c r="B287" s="16"/>
+      <c r="B287" s="16">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44848</v>
       </c>
-      <c r="B288" s="16"/>
+      <c r="B288" s="16">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44849</v>
       </c>
-      <c r="B289" s="16"/>
+      <c r="B289" s="16">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44850</v>
       </c>
-      <c r="B290" s="16"/>
+      <c r="B290" s="16">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44851</v>
       </c>
-      <c r="B291" s="16"/>
+      <c r="B291" s="16">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44852</v>
       </c>
-      <c r="B292" s="16"/>
+      <c r="B292" s="16">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>44853</v>
       </c>
-      <c r="B293" s="16"/>
+      <c r="B293" s="16">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44854</v>
       </c>
-      <c r="B294" s="16"/>
+      <c r="B294" s="16">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44855</v>
       </c>
-      <c r="B295" s="16"/>
+      <c r="B295" s="16">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44856</v>
       </c>
-      <c r="B296" s="16"/>
+      <c r="B296" s="16">
+        <v>6.19</v>
+      </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44857</v>
       </c>
-      <c r="B297" s="16"/>
+      <c r="B297" s="16">
+        <v>3.41</v>
+      </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44858</v>
       </c>
-      <c r="B298" s="16"/>
+      <c r="B298" s="16">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44859</v>
       </c>
-      <c r="B299" s="16"/>
+      <c r="B299" s="16">
+        <v>5.58</v>
+      </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44860</v>
       </c>
-      <c r="B300" s="16"/>
+      <c r="B300" s="16">
+        <v>3.19</v>
+      </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44861</v>
       </c>
-      <c r="B301" s="16"/>
+      <c r="B301" s="16">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44862</v>
       </c>
-      <c r="B302" s="16"/>
+      <c r="B302" s="16">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44863</v>
       </c>
-      <c r="B303" s="16"/>
+      <c r="B303" s="16">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44864</v>
       </c>
-      <c r="B304" s="16"/>
+      <c r="B304" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>44865</v>
       </c>
-      <c r="B305" s="16"/>
+      <c r="B305" s="16">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44866</v>
       </c>
-      <c r="B306" s="16"/>
+      <c r="B306" s="16">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>44867</v>
       </c>
-      <c r="B307" s="16"/>
+      <c r="B307" s="16">
+        <v>1.1200000000000001</v>
+      </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>44868</v>
       </c>
-      <c r="B308" s="16"/>
+      <c r="B308" s="16">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>44869</v>
       </c>
-      <c r="B309" s="16"/>
+      <c r="B309" s="16">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>44870</v>
       </c>
-      <c r="B310" s="16"/>
+      <c r="B310" s="16">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>44871</v>
       </c>
-      <c r="B311" s="16"/>
+      <c r="B311" s="16">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>44872</v>
       </c>
-      <c r="B312" s="16"/>
+      <c r="B312" s="16">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>44873</v>
       </c>
-      <c r="B313" s="16"/>
+      <c r="B313" s="16">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>44874</v>
       </c>
-      <c r="B314" s="16"/>
+      <c r="B314" s="16">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>44875</v>
       </c>
-      <c r="B315" s="16"/>
+      <c r="B315" s="16">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>44876</v>
       </c>
-      <c r="B316" s="16"/>
+      <c r="B316" s="16">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>44877</v>
       </c>
-      <c r="B317" s="16"/>
+      <c r="B317" s="16">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>44878</v>
       </c>
-      <c r="B318" s="16"/>
+      <c r="B318" s="16">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>44879</v>
       </c>
-      <c r="B319" s="16"/>
+      <c r="B319" s="16">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>44880</v>
       </c>
-      <c r="B320" s="16"/>
+      <c r="B320" s="16">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>44881</v>
       </c>
-      <c r="B321" s="16"/>
+      <c r="B321" s="16">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>44882</v>
       </c>
-      <c r="B322" s="16"/>
+      <c r="B322" s="16">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>44883</v>
       </c>
-      <c r="B323" s="16"/>
+      <c r="B323" s="16">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>44884</v>
       </c>
-      <c r="B324" s="16"/>
+      <c r="B324" s="16">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>44885</v>
       </c>
-      <c r="B325" s="16"/>
+      <c r="B325" s="16">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>44886</v>
       </c>
-      <c r="B326" s="16"/>
+      <c r="B326" s="16">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>44887</v>
       </c>
-      <c r="B327" s="16"/>
+      <c r="B327" s="16">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>44888</v>
       </c>
-      <c r="B328" s="16"/>
+      <c r="B328" s="16">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>44889</v>
       </c>
-      <c r="B329" s="16"/>
+      <c r="B329" s="16">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>44890</v>
       </c>
-      <c r="B330" s="16"/>
+      <c r="B330" s="16">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>44891</v>
       </c>
-      <c r="B331" s="16"/>
+      <c r="B331" s="16">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>44892</v>
       </c>
-      <c r="B332" s="16"/>
+      <c r="B332" s="16">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>44893</v>
       </c>
-      <c r="B333" s="16"/>
+      <c r="B333" s="16">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>44894</v>
       </c>
-      <c r="B334" s="16"/>
+      <c r="B334" s="16">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>44895</v>
       </c>
-      <c r="B335" s="16"/>
+      <c r="B335" s="16">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">

--- a/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
+++ b/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AA95D3-A80A-8A4C-9430-C7DDFBFE03C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FB895C-7A16-7F48-AA55-81470B37E61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24760" yWindow="1020" windowWidth="10300" windowHeight="17880" tabRatio="841" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14580" yWindow="760" windowWidth="15580" windowHeight="17880" tabRatio="841" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="9" r:id="rId1"/>
@@ -29441,7 +29441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B366"/>
     </sheetView>
   </sheetViews>
@@ -31292,8 +31292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="B336" sqref="B336"/>
+    <sheetView topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33986,187 +33986,249 @@
       <c r="A336" s="1">
         <v>44896</v>
       </c>
-      <c r="B336" s="16"/>
+      <c r="B336" s="16">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>44897</v>
       </c>
-      <c r="B337" s="16"/>
+      <c r="B337" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>44898</v>
       </c>
-      <c r="B338" s="16"/>
+      <c r="B338" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>44899</v>
       </c>
-      <c r="B339" s="16"/>
+      <c r="B339" s="16">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>44900</v>
       </c>
-      <c r="B340" s="16"/>
+      <c r="B340" s="16">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>44901</v>
       </c>
-      <c r="B341" s="16"/>
+      <c r="B341" s="16">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>44902</v>
       </c>
-      <c r="B342" s="16"/>
+      <c r="B342" s="16">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>44903</v>
       </c>
-      <c r="B343" s="16"/>
+      <c r="B343" s="16">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>44904</v>
       </c>
-      <c r="B344" s="16"/>
+      <c r="B344" s="16">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>44905</v>
       </c>
-      <c r="B345" s="16"/>
+      <c r="B345" s="16">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>44906</v>
       </c>
-      <c r="B346" s="16"/>
+      <c r="B346" s="16">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>44907</v>
       </c>
-      <c r="B347" s="16"/>
+      <c r="B347" s="16">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>44908</v>
       </c>
-      <c r="B348" s="16"/>
+      <c r="B348" s="16">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>44909</v>
       </c>
-      <c r="B349" s="16"/>
+      <c r="B349" s="16">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>44910</v>
       </c>
-      <c r="B350" s="16"/>
+      <c r="B350" s="16">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>44911</v>
       </c>
-      <c r="B351" s="16"/>
+      <c r="B351" s="16">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>44912</v>
       </c>
-      <c r="B352" s="16"/>
+      <c r="B352" s="16">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>44913</v>
       </c>
-      <c r="B353" s="16"/>
+      <c r="B353" s="16">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>44914</v>
       </c>
-      <c r="B354" s="16"/>
+      <c r="B354" s="16">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>44915</v>
       </c>
-      <c r="B355" s="16"/>
+      <c r="B355" s="16">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>44916</v>
       </c>
-      <c r="B356" s="16"/>
+      <c r="B356" s="16">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>44917</v>
       </c>
-      <c r="B357" s="16"/>
+      <c r="B357" s="16">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>44918</v>
       </c>
-      <c r="B358" s="16"/>
+      <c r="B358" s="16">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>44919</v>
       </c>
-      <c r="B359" s="16"/>
+      <c r="B359" s="16">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>44920</v>
       </c>
-      <c r="B360" s="16"/>
+      <c r="B360" s="16">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>44921</v>
       </c>
-      <c r="B361" s="16"/>
+      <c r="B361" s="16">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>44922</v>
       </c>
-      <c r="B362" s="16"/>
+      <c r="B362" s="16">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>44923</v>
       </c>
-      <c r="B363" s="16"/>
+      <c r="B363" s="16">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>44924</v>
       </c>
-      <c r="B364" s="16"/>
+      <c r="B364" s="16">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>44925</v>
       </c>
-      <c r="B365" s="16"/>
+      <c r="B365" s="16">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>44926</v>
       </c>
-      <c r="B366" s="16"/>
+      <c r="B366" s="16">
+        <v>0.35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
+++ b/data/daily_runoff/12256_Rosegbach_example_river_runoff.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FB895C-7A16-7F48-AA55-81470B37E61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A4A118-CDA0-3844-AA34-353C08A0E653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="760" windowWidth="15580" windowHeight="17880" tabRatio="841" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14580" yWindow="760" windowWidth="15580" windowHeight="17880" tabRatio="841" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="9" r:id="rId1"/>
@@ -108,24 +108,6 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={F0F41B54-2E51-054B-88B5-51CAE56B3D15}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F0F41B54-2E51-054B-88B5-51CAE56B3D15}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    01.07.2017 - 31.12.2017  -  *) в подпоре</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={DE11902B-F9EC-DC46-9142-3CD164252255}</author>
@@ -554,14 +536,6 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2023-06-23T11:54:36.70" personId="{00000000-0000-0000-0000-000000000000}" id="{F0F41B54-2E51-054B-88B5-51CAE56B3D15}">
-    <text>01.07.2017 - 31.12.2017  -  *) в подпоре</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2023-06-23T11:54:50.36" personId="{00000000-0000-0000-0000-000000000000}" id="{DE11902B-F9EC-DC46-9142-3CD164252255}">
     <text>01.08.2018 - 31.12.2018 -   *) в подпоре</text>
   </threadedComment>
@@ -17227,7 +17201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B367"/>
     </sheetView>
   </sheetViews>
@@ -19080,7 +19054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20927,7 +20901,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29441,7 +29414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B366"/>
     </sheetView>
   </sheetViews>
